--- a/student.xlsx
+++ b/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\earth\StudentMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B8264E-0CF0-49E0-A035-BB6290BCD62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA49C71F-9B3E-4BEE-B6B5-9F7AAFBAF1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
   <si>
     <t>姓名</t>
   </si>
@@ -443,6 +443,14 @@
   </si>
   <si>
     <t>绍兴文理学院</t>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -786,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -800,7 +808,7 @@
     <col min="4" max="4" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -813,8 +821,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>121010301</v>
       </c>
@@ -827,8 +841,14 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>27.922038000000001</v>
+      </c>
+      <c r="F2">
+        <v>120.7008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>121010302</v>
       </c>
@@ -841,8 +861,14 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>30.325714000000001</v>
+      </c>
+      <c r="F3">
+        <v>120.397273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>121010303</v>
       </c>
@@ -855,8 +881,14 @@
       <c r="D4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>30.319520000000001</v>
+      </c>
+      <c r="F4">
+        <v>120.35963099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>121010304</v>
       </c>
@@ -870,7 +902,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>121010305</v>
       </c>
@@ -884,7 +916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>121010307</v>
       </c>
@@ -892,7 +924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>121010308</v>
       </c>
@@ -900,7 +932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>121010309</v>
       </c>
@@ -908,7 +940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>121010311</v>
       </c>
@@ -916,7 +948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>121010312</v>
       </c>
@@ -924,7 +956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>121010313</v>
       </c>
@@ -938,7 +970,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>121010315</v>
       </c>
@@ -946,7 +978,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>121010316</v>
       </c>
@@ -954,7 +986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>121010317</v>
       </c>
@@ -962,7 +994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>121010320</v>
       </c>
@@ -1328,7 +1360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>121010419</v>
       </c>
@@ -1342,7 +1374,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>121010420</v>
       </c>
@@ -1350,7 +1382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>121010421</v>
       </c>
@@ -1364,7 +1396,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>121010422</v>
       </c>
@@ -1378,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>121010423</v>
       </c>
@@ -1392,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>121010424</v>
       </c>
@@ -1403,7 +1435,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>121010426</v>
       </c>
@@ -1411,7 +1443,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>121010429</v>
       </c>
@@ -1419,7 +1451,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>121010430</v>
       </c>
@@ -1433,7 +1465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>121010431</v>
       </c>
@@ -1447,7 +1479,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>121010432</v>
       </c>
@@ -1455,7 +1487,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>121010434</v>
       </c>
@@ -1463,7 +1495,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>121010435</v>
       </c>
@@ -1474,7 +1506,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>121010436</v>
       </c>
@@ -1487,8 +1519,14 @@
       <c r="D62" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>30.321641</v>
+      </c>
+      <c r="F62">
+        <v>120.394735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>121010437</v>
       </c>
@@ -1499,7 +1537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>121010438</v>
       </c>
